--- a/20200801_Accessibility_Guide.xlsx
+++ b/20200801_Accessibility_Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\UniversityOfTwente\001_Master Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSteinebach\OneDrive - conet.de\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901777CC-C01F-4D11-9045-B2CB2761733D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A58365D-3E47-4A01-AF8A-04777740CB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="841" firstSheet="1" activeTab="1" xr2:uid="{F4E8EB50-4A8E-4A1A-83CD-456332DE76CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="841" firstSheet="1" activeTab="7" xr2:uid="{F4E8EB50-4A8E-4A1A-83CD-456332DE76CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Verweise" sheetId="5" state="hidden" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="844">
   <si>
     <t>Principle</t>
   </si>
@@ -5652,6 +5652,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5661,48 +5772,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5715,78 +5787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5808,60 +5808,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5885,8 +5885,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -6195,7 +6195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6497,32 +6497,32 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="86.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>336</v>
       </c>
@@ -6547,34 +6547,34 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.69921875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="7.375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7.09765625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="7.09765625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="6.59765625" style="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="7.125" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="6.625" style="18" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="13" style="15" customWidth="1"/>
-    <col min="12" max="12" width="27.69921875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="25.19921875" style="15" customWidth="1"/>
-    <col min="14" max="15" width="5.69921875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="6.69921875" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.19921875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="27.75" style="15" customWidth="1"/>
+    <col min="13" max="13" width="25.25" style="15" customWidth="1"/>
+    <col min="14" max="15" width="5.75" style="15" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="15" customWidth="1"/>
     <col min="18" max="18" width="5" style="15" customWidth="1"/>
-    <col min="19" max="19" width="4.19921875" style="15" customWidth="1"/>
-    <col min="20" max="20" width="55.19921875" style="15" customWidth="1"/>
-    <col min="21" max="21" width="43.19921875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="94.19921875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.69921875" style="2"/>
+    <col min="19" max="19" width="4.25" style="15" customWidth="1"/>
+    <col min="20" max="20" width="55.25" style="15" customWidth="1"/>
+    <col min="21" max="21" width="43.25" style="14" customWidth="1"/>
+    <col min="22" max="22" width="94.25" style="14" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>570</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="262.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="228" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="316.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="262.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="299.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="289.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="299.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="262.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="270.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="289.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="299.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="386.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="399" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="1:23" ht="124.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="1:23" customFormat="1" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" ht="289.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" customFormat="1" ht="299.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" ht="386.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" customFormat="1" ht="399" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>583</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
     </row>
-    <row r="32" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>595</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="1:23" s="28" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="28" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>596</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="V33" s="17"/>
       <c r="W33" s="26"/>
     </row>
-    <row r="34" spans="1:23" ht="331.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="342" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>30</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>31</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>32</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="1:23" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>33</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="114" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>587</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="114" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>588</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>589</v>
       </c>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>34</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>35</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>36</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="V43" s="14"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:23" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>37</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="V44" s="14"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="45" spans="1:23" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>38</v>
       </c>
@@ -9223,7 +9223,7 @@
       <c r="V45" s="14"/>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="1:23" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <v>39</v>
       </c>
@@ -9282,7 +9282,7 @@
       <c r="V46" s="14"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23" ht="234.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="256.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>40</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>41</v>
       </c>
@@ -9395,7 +9395,7 @@
       <c r="V48" s="14"/>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="1:23" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>42</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>43</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" ht="220.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" ht="230.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>44</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>45</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="171" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>46</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>47</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="130.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>48</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>49</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="171" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>50</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="W57" s="8"/>
     </row>
-    <row r="58" spans="1:23" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>51</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="V58" s="14"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="1:23" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A59" s="23">
         <v>52</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="60" spans="1:23" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>576</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="V60" s="15"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>53</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="331.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="342" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
         <v>54</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
         <v>55</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="248.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="256.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23">
         <v>56</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:23" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" customFormat="1" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A65" s="23">
         <v>57</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="66" spans="1:23" customFormat="1" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23">
         <v>58</v>
       </c>
@@ -10452,7 +10452,7 @@
       <c r="V66" s="14"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="1:23" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>59</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="124.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23">
         <v>60</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:23" customFormat="1" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A69" s="23">
         <v>61</v>
       </c>
@@ -10629,7 +10629,7 @@
       <c r="V69" s="14"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="1:23" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>62</v>
       </c>
@@ -10692,7 +10692,7 @@
       <c r="V70" s="14"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71" spans="1:23" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>63</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="72" spans="1:23" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>64</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="V72" s="14"/>
       <c r="W72" s="8"/>
     </row>
-    <row r="73" spans="1:23" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>65</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23">
         <v>66</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="372.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
         <v>67</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A76" s="23">
         <v>68</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:23" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" customFormat="1" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23">
         <v>69</v>
       </c>
@@ -11117,7 +11117,7 @@
       <c r="V77" s="14"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" spans="1:23" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="158.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
         <v>70</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23">
         <v>71</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23">
         <v>72</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="303.60000000000002" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="313.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
         <v>73</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="1:23" customFormat="1" ht="207" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A82" s="23">
         <v>74</v>
       </c>
@@ -11389,7 +11389,7 @@
       <c r="V82" s="14"/>
       <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="1:23" customFormat="1" ht="234.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23">
         <v>75</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="V83" s="14"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:23" ht="234.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="256.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
         <v>76</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="372.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="387.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23">
         <v>77</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="110.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23">
         <v>78</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="C87" s="2" t="s">
         <v>573</v>
@@ -11687,13 +11687,18 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="94" zoomScaleNormal="100" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="0.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>670</v>
       </c>
@@ -11705,7 +11710,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="128" t="s">
         <v>671</v>
       </c>
@@ -11717,8 +11722,8 @@
       <c r="G3" s="128"/>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="109" t="s">
         <v>833</v>
       </c>
@@ -11730,7 +11735,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="111"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="112"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
@@ -11740,7 +11745,7 @@
       <c r="G6" s="113"/>
       <c r="H6" s="114"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="112"/>
       <c r="B7" s="113"/>
       <c r="C7" s="113"/>
@@ -11750,7 +11755,7 @@
       <c r="G7" s="113"/>
       <c r="H7" s="114"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="112"/>
       <c r="B8" s="113"/>
       <c r="C8" s="113"/>
@@ -11760,7 +11765,7 @@
       <c r="G8" s="113"/>
       <c r="H8" s="114"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="115"/>
       <c r="B9" s="116"/>
       <c r="C9" s="116"/>
@@ -11770,7 +11775,7 @@
       <c r="G9" s="116"/>
       <c r="H9" s="117"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="128" t="s">
         <v>672</v>
       </c>
@@ -11782,8 +11787,8 @@
       <c r="G11" s="128"/>
       <c r="H11" s="128"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="118" t="s">
         <v>834</v>
       </c>
@@ -11795,7 +11800,7 @@
       <c r="G13" s="119"/>
       <c r="H13" s="120"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="121"/>
       <c r="B14" s="122"/>
       <c r="C14" s="122"/>
@@ -11805,7 +11810,7 @@
       <c r="G14" s="122"/>
       <c r="H14" s="123"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="121"/>
       <c r="B15" s="122"/>
       <c r="C15" s="122"/>
@@ -11815,7 +11820,7 @@
       <c r="G15" s="122"/>
       <c r="H15" s="123"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="121"/>
       <c r="B16" s="122"/>
       <c r="C16" s="122"/>
@@ -11825,7 +11830,7 @@
       <c r="G16" s="122"/>
       <c r="H16" s="123"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="124"/>
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
@@ -11835,7 +11840,7 @@
       <c r="G17" s="125"/>
       <c r="H17" s="126"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="108" t="s">
         <v>771</v>
       </c>
@@ -11847,7 +11852,7 @@
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="108"/>
       <c r="B21" s="108"/>
       <c r="C21" s="108"/>
@@ -11857,7 +11862,7 @@
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="108" t="s">
         <v>835</v>
       </c>
@@ -11869,7 +11874,7 @@
       <c r="G23" s="108"/>
       <c r="H23" s="108"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="108"/>
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
@@ -11879,7 +11884,7 @@
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="108"/>
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
@@ -11915,21 +11920,21 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="29.8984375" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="44.8984375" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="44.875" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>723</v>
       </c>
@@ -11949,504 +11954,539 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="166" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="153" t="s">
         <v>681</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="147" t="s">
         <v>678</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="147" t="s">
         <v>680</v>
       </c>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="170" t="s">
         <v>700</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="163" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="136"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="139"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="167"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="164"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="167"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="47" t="s">
         <v>701</v>
       </c>
-      <c r="F4" s="136"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="144" t="s">
+      <c r="F4" s="164"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="167"/>
+      <c r="B5" s="169" t="s">
         <v>682</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="162" t="s">
         <v>708</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="172" t="s">
         <v>702</v>
       </c>
-      <c r="F5" s="136"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="136"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="148" t="s">
+      <c r="F5" s="164"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="167"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="164"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="167"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="172" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="136"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="136"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="148" t="s">
+      <c r="F7" s="164"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="167"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="164"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="167"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="172" t="s">
         <v>704</v>
       </c>
-      <c r="F9" s="136"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="136"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="148" t="s">
+      <c r="F9" s="164"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="167"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="164"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="167"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="172" t="s">
         <v>705</v>
       </c>
-      <c r="F11" s="136"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="144" t="s">
+      <c r="F11" s="164"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="167"/>
+      <c r="B12" s="169" t="s">
         <v>684</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="162" t="s">
         <v>683</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="136"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="148" t="s">
+      <c r="D12" s="148"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="164"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="167"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="172" t="s">
         <v>706</v>
       </c>
-      <c r="F13" s="136"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="136"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="148" t="s">
+      <c r="F13" s="164"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="167"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="164"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="167"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="172" t="s">
         <v>707</v>
       </c>
-      <c r="F15" s="136"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="136"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
+      <c r="F15" s="164"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="167"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="164"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="167"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="136"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
+      <c r="F17" s="164"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="168"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="137"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="F18" s="165"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="132" t="s">
         <v>605</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="135" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="137" t="s">
         <v>685</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D19" s="144" t="s">
         <v>686</v>
       </c>
-      <c r="E19" s="154" t="s">
+      <c r="E19" s="135" t="s">
         <v>709</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="F19" s="129" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="152"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="156" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="133"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="130"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="133"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="138" t="s">
         <v>710</v>
       </c>
-      <c r="F21" s="152"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="152"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="155" t="s">
+      <c r="F21" s="130"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="133"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="130"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="133"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="136" t="s">
         <v>711</v>
       </c>
-      <c r="F23" s="152"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
-      <c r="B24" s="168" t="s">
+      <c r="F23" s="130"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="133"/>
+      <c r="B24" s="140" t="s">
         <v>689</v>
       </c>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="142" t="s">
         <v>688</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="152"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="155" t="s">
+      <c r="D24" s="145"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="130"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="133"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="136" t="s">
         <v>712</v>
       </c>
-      <c r="F25" s="152"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="159"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="152"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="155" t="s">
+      <c r="F25" s="130"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="133"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="130"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="133"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="136" t="s">
         <v>713</v>
       </c>
-      <c r="F27" s="152"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="160"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="153"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="171" t="s">
+      <c r="F27" s="130"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="134"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="131"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="150" t="s">
         <v>690</v>
       </c>
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="153" t="s">
         <v>694</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="147" t="s">
         <v>691</v>
       </c>
-      <c r="D29" s="138" t="s">
+      <c r="D29" s="147" t="s">
         <v>693</v>
       </c>
-      <c r="E29" s="138" t="s">
+      <c r="E29" s="147" t="s">
         <v>707</v>
       </c>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="163" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="172"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="136"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="172"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="151"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="164"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="151"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148" t="s">
         <v>714</v>
       </c>
-      <c r="F31" s="136"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="136"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139" t="s">
+      <c r="F31" s="164"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="151"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="164"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="151"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148" t="s">
         <v>715</v>
       </c>
-      <c r="F33" s="136"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="142" t="s">
+      <c r="F33" s="164"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="151"/>
+      <c r="B34" s="154" t="s">
         <v>695</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="136"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139" t="s">
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="164"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="151"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148" t="s">
         <v>702</v>
       </c>
-      <c r="F35" s="136"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="136"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139" t="s">
+      <c r="F35" s="164"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="151"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="164"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="151"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148" t="s">
         <v>704</v>
       </c>
-      <c r="F37" s="136"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="173"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="137"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="158" t="s">
+      <c r="F37" s="164"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="152"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="165"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="132" t="s">
         <v>722</v>
       </c>
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="157" t="s">
         <v>698</v>
       </c>
-      <c r="C39" s="132" t="s">
+      <c r="C39" s="144" t="s">
         <v>696</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="144" t="s">
         <v>697</v>
       </c>
-      <c r="E39" s="154" t="s">
+      <c r="E39" s="135" t="s">
         <v>716</v>
       </c>
-      <c r="F39" s="151" t="s">
+      <c r="F39" s="129" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="159"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="152"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="159"/>
-      <c r="B41" s="162"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="155" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="133"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="130"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="133"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="136" t="s">
         <v>717</v>
       </c>
-      <c r="F41" s="152"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="159"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="152"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="159"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="155" t="s">
+      <c r="F41" s="130"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="133"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="130"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="133"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="136" t="s">
         <v>718</v>
       </c>
-      <c r="F43" s="152"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="159"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="152"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="159"/>
-      <c r="B45" s="164" t="s">
+      <c r="F43" s="130"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="133"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="130"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="133"/>
+      <c r="B45" s="160" t="s">
         <v>699</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="155" t="s">
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="136" t="s">
         <v>719</v>
       </c>
-      <c r="F45" s="152"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="159"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="152"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="159"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="155" t="s">
+      <c r="F45" s="130"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="133"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="130"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="133"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="136" t="s">
         <v>720</v>
       </c>
-      <c r="F47" s="152"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="159"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="152"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="159"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="155" t="s">
+      <c r="F47" s="130"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="133"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="130"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="133"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="136" t="s">
         <v>721</v>
       </c>
-      <c r="F49" s="152"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="160"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="153"/>
+      <c r="F49" s="130"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="134"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="F2:F18"/>
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C39:C50"/>
     <mergeCell ref="F39:F50"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="B19:B23"/>
@@ -12463,41 +12503,6 @@
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C39:C50"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="F2:F18"/>
-    <mergeCell ref="D2:D18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12510,20 +12515,20 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="28.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="27.8984375" customWidth="1"/>
-    <col min="5" max="5" width="59.296875" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="177" t="s">
         <v>740</v>
       </c>
@@ -12531,7 +12536,7 @@
       <c r="C1" s="175"/>
       <c r="D1" s="175"/>
     </row>
-    <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
         <v>729</v>
       </c>
@@ -12539,7 +12544,7 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="178" t="s">
         <v>730</v>
       </c>
@@ -12547,7 +12552,7 @@
       <c r="C4" s="179"/>
       <c r="D4" s="179"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>213</v>
       </c>
@@ -12557,7 +12562,7 @@
       <c r="C5" s="108"/>
       <c r="D5" s="108"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -12567,7 +12572,7 @@
       <c r="C6" s="180"/>
       <c r="D6" s="180"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -12577,7 +12582,7 @@
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="179" t="s">
         <v>745</v>
       </c>
@@ -12585,13 +12590,13 @@
       <c r="C9" s="179"/>
       <c r="D9" s="179"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="174"/>
       <c r="B10" s="174"/>
       <c r="C10" s="174"/>
       <c r="D10" s="174"/>
     </row>
-    <row r="11" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="175" t="s">
         <v>836</v>
       </c>
@@ -12599,13 +12604,13 @@
       <c r="C11" s="175"/>
       <c r="D11" s="175"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
       <c r="B12" s="87"/>
       <c r="C12" s="176"/>
       <c r="D12" s="176"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>8</v>
       </c>
@@ -12622,7 +12627,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>726</v>
       </c>
@@ -12639,7 +12644,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>726</v>
       </c>
@@ -12656,7 +12661,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>726</v>
       </c>
@@ -12673,7 +12678,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>726</v>
       </c>
@@ -12690,7 +12695,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>741</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>741</v>
       </c>
@@ -12724,11 +12729,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A10:D10"/>
@@ -12758,186 +12763,186 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="124.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="46.8984375" customWidth="1"/>
+    <col min="2" max="2" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="12" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
         <v>237</v>
       </c>
@@ -12945,312 +12950,312 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>275</v>
       </c>
@@ -13275,13 +13280,13 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="129.19921875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="46.296875" customWidth="1"/>
+    <col min="1" max="1" width="129.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>752</v>
       </c>
@@ -13289,65 +13294,65 @@
         <v>756</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="60" t="s">
         <v>285</v>
       </c>
@@ -13355,158 +13360,158 @@
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="57" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>303</v>
       </c>
@@ -13514,7 +13519,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>304</v>
       </c>
@@ -13522,60 +13527,60 @@
         <v>755</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>310</v>
       </c>
@@ -13583,73 +13588,73 @@
         <v>755</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>318</v>
       </c>
@@ -13657,7 +13662,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A89" s="57" t="s">
         <v>319</v>
       </c>
@@ -13665,7 +13670,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="57" t="s">
         <v>320</v>
       </c>
@@ -13673,60 +13678,60 @@
         <v>753</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>326</v>
       </c>
@@ -13734,7 +13739,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="57" t="s">
         <v>327</v>
       </c>
@@ -13742,50 +13747,50 @@
         <v>768</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>758</v>
       </c>
@@ -13793,57 +13798,57 @@
         <v>769</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>767</v>
       </c>
@@ -13870,14 +13875,14 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" customWidth="1"/>
-    <col min="2" max="2" width="84.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="84.375" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>773</v>
       </c>
@@ -13888,25 +13893,25 @@
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="194" t="s">
         <v>775</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>786</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="189" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="195"/>
       <c r="B3" s="72" t="s">
         <v>787</v>
       </c>
-      <c r="C3" s="182"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="191"/>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>777</v>
       </c>
@@ -13917,7 +13922,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>779</v>
       </c>
@@ -13928,80 +13933,80 @@
         <v>778</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="188" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="181" t="s">
         <v>780</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>790</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="192" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="197"/>
       <c r="B7" s="66" t="s">
         <v>791</v>
       </c>
-      <c r="C7" s="186"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
+      <c r="C7" s="196"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="182"/>
       <c r="B8" s="75" t="s">
         <v>792</v>
       </c>
-      <c r="C8" s="187"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="183" t="s">
+      <c r="C8" s="193"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="194" t="s">
         <v>781</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>793</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="189" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="198"/>
       <c r="B10" s="65" t="s">
         <v>795</v>
       </c>
-      <c r="C10" s="198"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
+      <c r="C10" s="190"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="198"/>
       <c r="B11" s="65" t="s">
         <v>796</v>
       </c>
-      <c r="C11" s="198"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="184"/>
+      <c r="C11" s="190"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="195"/>
       <c r="B12" s="72" t="s">
         <v>797</v>
       </c>
-      <c r="C12" s="182"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="188" t="s">
+      <c r="C12" s="191"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="181" t="s">
         <v>782</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="183" t="s">
         <v>799</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="192" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="187"/>
-    </row>
-    <row r="15" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="182"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="193"/>
+    </row>
+    <row r="15" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>783</v>
       </c>
@@ -14012,25 +14017,25 @@
         <v>778</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="196" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="187" t="s">
         <v>784</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="185" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="197"/>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="188"/>
       <c r="B17" s="75" t="s">
         <v>802</v>
       </c>
-      <c r="C17" s="195"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="186"/>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>785</v>
       </c>
@@ -14043,17 +14048,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14066,29 +14071,29 @@
   </sheetPr>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.296875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="35.59765625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="29.8984375" style="15" customWidth="1"/>
-    <col min="11" max="16" width="6.19921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="55.19921875" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="6.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="15" customWidth="1"/>
+    <col min="9" max="9" width="35.625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="15" customWidth="1"/>
+    <col min="11" max="16" width="6.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="55.25" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="104"/>
       <c r="B1" s="202" t="s">
         <v>822</v>
@@ -14108,7 +14113,7 @@
       <c r="O1" s="202"/>
       <c r="P1" s="202"/>
     </row>
-    <row r="2" spans="1:17" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="199" t="s">
         <v>839</v>
       </c>
@@ -14133,7 +14138,7 @@
       <c r="O2" s="200"/>
       <c r="P2" s="201"/>
     </row>
-    <row r="3" spans="1:17" s="96" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="96" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
         <v>570</v>
       </c>
@@ -14184,7 +14189,7 @@
       </c>
       <c r="Q3" s="95"/>
     </row>
-    <row r="4" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="105">
         <v>1</v>
       </c>
@@ -14229,7 +14234,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="105">
         <v>2</v>
       </c>
@@ -14273,7 +14278,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="105">
         <v>3</v>
       </c>
@@ -14317,7 +14322,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="105">
         <v>4</v>
       </c>
@@ -14361,7 +14366,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105">
         <v>5</v>
       </c>
@@ -14405,7 +14410,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="105">
         <v>6</v>
       </c>
@@ -14449,7 +14454,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105">
         <v>7</v>
       </c>
@@ -14490,7 +14495,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105">
         <v>8</v>
       </c>
@@ -14537,7 +14542,7 @@
       </c>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="105">
         <v>9</v>
       </c>
@@ -14584,7 +14589,7 @@
       </c>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105">
         <v>10</v>
       </c>
@@ -14631,7 +14636,7 @@
       </c>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A14" s="105">
         <v>11</v>
       </c>
@@ -14674,11 +14679,8 @@
       <c r="P14" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="Q14" s="15" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="105">
         <v>12</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A16" s="105">
         <v>13</v>
       </c>
@@ -14766,7 +14768,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="105">
         <v>14</v>
       </c>
@@ -14810,7 +14812,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="171" x14ac:dyDescent="0.2">
       <c r="A18" s="105">
         <v>15</v>
       </c>
@@ -14853,7 +14855,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="105">
         <v>16</v>
       </c>
@@ -14898,7 +14900,7 @@
       </c>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="228" x14ac:dyDescent="0.2">
       <c r="A20" s="105">
         <v>17</v>
       </c>
@@ -14942,7 +14944,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="133.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="105">
         <v>18</v>
       </c>
@@ -14989,7 +14991,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A22" s="105">
         <v>19</v>
       </c>
@@ -15033,7 +15035,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="105">
         <v>20</v>
       </c>
@@ -15076,11 +15078,8 @@
       <c r="P23" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="Q23" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="220.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" ht="228" x14ac:dyDescent="0.2">
       <c r="A24" s="105">
         <v>21</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A25" s="105">
         <v>22</v>
       </c>
@@ -15168,7 +15167,7 @@
       </c>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="317.39999999999998" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A26" s="105">
         <v>23</v>
       </c>
@@ -15215,7 +15214,7 @@
       </c>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A27" s="105">
         <v>24</v>
       </c>
@@ -15260,7 +15259,7 @@
       </c>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A28" s="105">
         <v>25</v>
       </c>
@@ -15301,7 +15300,7 @@
       </c>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" customFormat="1" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" customFormat="1" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="105">
         <v>26</v>
       </c>
@@ -15350,7 +15349,7 @@
       </c>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" customFormat="1" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A30" s="105">
         <v>27</v>
       </c>
@@ -15397,7 +15396,7 @@
       </c>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" customFormat="1" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A31" s="105">
         <v>28</v>
       </c>
@@ -15444,7 +15443,7 @@
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" customFormat="1" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A32" s="105">
         <v>29</v>
       </c>
@@ -15483,7 +15482,7 @@
       </c>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="107" t="s">
         <v>583</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A34" s="107" t="s">
         <v>595</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="28" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="28" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A35" s="107" t="s">
         <v>596</v>
       </c>
@@ -15612,7 +15611,7 @@
       </c>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" ht="276" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A36" s="105">
         <v>30</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A37" s="105">
         <v>31</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="38" spans="1:17" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="105">
         <v>32</v>
       </c>
@@ -15742,7 +15741,7 @@
       </c>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:17" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A39" s="105">
         <v>33</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A40" s="107" t="s">
         <v>587</v>
       </c>
@@ -15821,7 +15820,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A41" s="107" t="s">
         <v>588</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="107" t="s">
         <v>589</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A43" s="105">
         <v>34</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A44" s="105">
         <v>35</v>
       </c>
@@ -15989,7 +15988,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:17" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A45" s="105">
         <v>36</v>
       </c>
@@ -16034,7 +16033,7 @@
       </c>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="105">
         <v>37</v>
       </c>
@@ -16083,7 +16082,7 @@
       </c>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="105">
         <v>38</v>
       </c>
@@ -16132,7 +16131,7 @@
       </c>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="105">
         <v>39</v>
       </c>
@@ -16177,7 +16176,7 @@
       </c>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:17" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A49" s="105">
         <v>40</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:17" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="105">
         <v>41</v>
       </c>
@@ -16258,7 +16257,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="105">
         <v>42</v>
       </c>
@@ -16309,7 +16308,7 @@
       </c>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="105">
         <v>43</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="53" spans="1:17" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="105">
         <v>44</v>
       </c>
@@ -16396,7 +16395,7 @@
       </c>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A54" s="105">
         <v>45</v>
       </c>
@@ -16438,7 +16437,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A55" s="105">
         <v>46</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A56" s="105">
         <v>47</v>
       </c>
@@ -16530,7 +16529,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="105">
         <v>48</v>
       </c>
@@ -16571,7 +16570,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="105">
         <v>49</v>
       </c>
@@ -16613,7 +16612,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="138" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A59" s="105">
         <v>50</v>
       </c>
@@ -16664,7 +16663,7 @@
       </c>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A60" s="105">
         <v>51</v>
       </c>
@@ -16709,7 +16708,7 @@
       </c>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="1:17" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" customFormat="1" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A61" s="105">
         <v>52</v>
       </c>
@@ -16756,11 +16755,9 @@
       <c r="P61" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="Q61" s="14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="105" t="s">
         <v>576</v>
       </c>
@@ -16807,11 +16804,9 @@
       <c r="P62" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="Q62" s="14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="105">
         <v>53</v>
       </c>
@@ -16850,7 +16845,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="203.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105">
         <v>54</v>
       </c>
@@ -16890,7 +16885,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A65" s="105">
         <v>55</v>
       </c>
@@ -16931,7 +16926,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A66" s="105">
         <v>56</v>
       </c>
@@ -16970,7 +16965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="67" spans="1:17" customFormat="1" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A67" s="105">
         <v>57</v>
       </c>
@@ -17017,11 +17012,9 @@
       <c r="P67" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="Q67" s="14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="1:17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A68" s="105">
         <v>58</v>
       </c>
@@ -17062,7 +17055,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="105">
         <v>59</v>
       </c>
@@ -17104,7 +17097,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A70" s="105">
         <v>60</v>
       </c>
@@ -17146,7 +17139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="1:17" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A71" s="105">
         <v>61</v>
       </c>
@@ -17195,7 +17188,7 @@
       </c>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A72" s="105">
         <v>62</v>
       </c>
@@ -17244,7 +17237,7 @@
       </c>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="105">
         <v>63</v>
       </c>
@@ -17293,7 +17286,7 @@
       </c>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A74" s="105">
         <v>64</v>
       </c>
@@ -17340,7 +17333,7 @@
       </c>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="105">
         <v>65</v>
       </c>
@@ -17375,7 +17368,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A76" s="105">
         <v>66</v>
       </c>
@@ -17417,7 +17410,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A77" s="105">
         <v>67</v>
       </c>
@@ -17466,11 +17459,8 @@
       <c r="P77" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="Q77" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="105">
         <v>68</v>
       </c>
@@ -17520,7 +17510,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="1:17" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="105">
         <v>69</v>
       </c>
@@ -17571,7 +17561,7 @@
       </c>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="105">
         <v>70</v>
       </c>
@@ -17609,7 +17599,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A81" s="105">
         <v>71</v>
       </c>
@@ -17651,7 +17641,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A82" s="105">
         <v>72</v>
       </c>
@@ -17691,7 +17681,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A83" s="105">
         <v>73</v>
       </c>
@@ -17730,7 +17720,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="84" spans="1:17" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A84" s="105">
         <v>74</v>
       </c>
@@ -17775,7 +17765,7 @@
       </c>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A85" s="105">
         <v>75</v>
       </c>
@@ -17818,7 +17808,7 @@
       </c>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A86" s="105">
         <v>76</v>
       </c>
@@ -17862,7 +17852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A87" s="105">
         <v>77</v>
       </c>
@@ -17906,7 +17896,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A88" s="105">
         <v>78</v>
       </c>
@@ -17980,23 +17970,23 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="139" zoomScaleNormal="400" zoomScalePageLayoutView="139" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A10" zoomScale="139" zoomScaleNormal="400" zoomScalePageLayoutView="139" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="69.69921875" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="203" t="s">
         <v>818</v>
       </c>
       <c r="B1" s="204"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
         <v>804</v>
       </c>
@@ -18004,7 +17994,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>217</v>
       </c>
@@ -18012,7 +18002,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>219</v>
       </c>
@@ -18020,7 +18010,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>221</v>
       </c>
@@ -18028,11 +18018,11 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="84" t="s">
         <v>808</v>
       </c>
@@ -18040,7 +18030,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>217</v>
       </c>
@@ -18048,7 +18038,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
         <v>812</v>
       </c>
@@ -18056,7 +18046,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
         <v>814</v>
       </c>
@@ -18064,7 +18054,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>219</v>
       </c>
@@ -18072,7 +18062,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
         <v>812</v>
       </c>
@@ -18080,7 +18070,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="86" t="s">
         <v>814</v>
       </c>
@@ -18088,49 +18078,49 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="203" t="s">
         <v>823</v>
       </c>
       <c r="B18" s="204"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="100" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="100" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="100" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="100" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="205" t="s">
         <v>827</v>
       </c>
       <c r="B24" s="205"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="205"/>
       <c r="B25" s="205"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="205" t="s">
         <v>828</v>
       </c>
       <c r="B26" s="205"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
         <v>829</v>
       </c>
@@ -18151,12 +18141,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18306,15 +18293,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C957214-3A81-4420-B3A0-C8AFAF1C6CFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62338233-8E2C-4303-96EE-658DF5C790AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24f57e8a-616f-40a6-b828-4bad99dc6fc3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18338,17 +18336,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62338233-8E2C-4303-96EE-658DF5C790AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C957214-3A81-4420-B3A0-C8AFAF1C6CFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24f57e8a-616f-40a6-b828-4bad99dc6fc3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>